--- a/biology/Zoologie/Atlides_browni/Atlides_browni.xlsx
+++ b/biology/Zoologie/Atlides_browni/Atlides_browni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlides browni est une espèce de papillons de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Atlides.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Atlides browni a été décrit par Luis Miguel Constantino (d), Julián Adolfo Salazar-Escobar (d) et Kurt Johnson (d) en 1993[1].
-Noms vernaculaires
-Atlides browni se nomme Brown's Hairstreak en anglais[2].
-Sous-espèce
-Atlides browni browni
-Atlides browni centralis Salazar &amp; Henao, 2004</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides browni a été décrit par Luis Miguel Constantino (d), Julián Adolfo Salazar-Escobar (d) et Kurt Johnson (d) en 1993.
+</t>
         </is>
       </c>
     </row>
@@ -543,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atlides browni est un petit papillon avec une très longue fine queue à chaque aile postérieure. Le dessus de couleur noire avec un triangle partant de la base bleu outremer. les ailes postérieures présentent à l'angle anal de petites taches vertes.
-Le revers l'abdomen est noir avec quelques petites taches vertes aux ailes postérieures le long du bord interne et dans l'angle anal.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides browni se nomme Brown's Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -575,12 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plantes hôtes</t>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Atlides browni browni
+Atlides browni centralis Salazar &amp; Henao, 2004</t>
         </is>
       </c>
     </row>
@@ -605,17 +627,87 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides browni est un petit papillon avec une très longue fine queue à chaque aile postérieure. Le dessus de couleur noire avec un triangle partant de la base bleu outremer. les ailes postérieures présentent à l'angle anal de petites taches vertes.
+Le revers l'abdomen est noir avec quelques petites taches vertes aux ailes postérieures le long du bord interne et dans l'angle anal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Atlides_browni</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlides_browni</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit en Colombie[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit en Colombie.
 Sur les autres projets Wikimedia :
 Atlides browni, sur Wikimedia CommonsAtlides browni, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Atlides_browni</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlides_browni</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
